--- a/published-data/fonds-solidarite/fds-2022-05-16/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-16/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -18148,13 +18148,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>5198</v>
+        <v>5203</v>
       </c>
       <c r="D348" t="n">
         <v>1053</v>
       </c>
       <c r="E348" t="n">
-        <v>20337729</v>
+        <v>20360065</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -18250,13 +18250,13 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D350" t="n">
         <v>137</v>
       </c>
       <c r="E350" t="n">
-        <v>9908094</v>
+        <v>9929275</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
@@ -18454,13 +18454,13 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>15724</v>
+        <v>15726</v>
       </c>
       <c r="D354" t="n">
         <v>2768</v>
       </c>
       <c r="E354" t="n">
-        <v>24658131</v>
+        <v>24658731</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -18607,13 +18607,13 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>2453</v>
+        <v>2456</v>
       </c>
       <c r="D357" t="n">
         <v>410</v>
       </c>
       <c r="E357" t="n">
-        <v>7360155</v>
+        <v>7383072</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
@@ -18658,13 +18658,13 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="D358" t="n">
         <v>150</v>
       </c>
       <c r="E358" t="n">
-        <v>4191769</v>
+        <v>4258463</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
@@ -18709,13 +18709,13 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D359" t="n">
         <v>60</v>
       </c>
       <c r="E359" t="n">
-        <v>2809400</v>
+        <v>2849572</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -18760,13 +18760,13 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D360" t="n">
         <v>14</v>
       </c>
       <c r="E360" t="n">
-        <v>2342770</v>
+        <v>2483190</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
@@ -21871,13 +21871,13 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>24110</v>
+        <v>24112</v>
       </c>
       <c r="D421" t="n">
         <v>3778</v>
       </c>
       <c r="E421" t="n">
-        <v>154183837</v>
+        <v>154298440</v>
       </c>
       <c r="F421" t="inlineStr">
         <is>
@@ -21922,13 +21922,13 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>10093</v>
+        <v>10094</v>
       </c>
       <c r="D422" t="n">
         <v>1498</v>
       </c>
       <c r="E422" t="n">
-        <v>101653054</v>
+        <v>101776872</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
@@ -22126,13 +22126,13 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D426" t="n">
         <v>32</v>
       </c>
       <c r="E426" t="n">
-        <v>19569981</v>
+        <v>19686374</v>
       </c>
       <c r="F426" t="inlineStr">
         <is>
@@ -22483,13 +22483,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>61055</v>
+        <v>61058</v>
       </c>
       <c r="D433" t="n">
         <v>9650</v>
       </c>
       <c r="E433" t="n">
-        <v>220846435</v>
+        <v>220858609</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163485</v>
+        <v>163490</v>
       </c>
       <c r="D434" t="n">
         <v>25454</v>
       </c>
       <c r="E434" t="n">
-        <v>710105349</v>
+        <v>710133503</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94521</v>
+        <v>94528</v>
       </c>
       <c r="D435" t="n">
         <v>12851</v>
       </c>
       <c r="E435" t="n">
-        <v>651656568</v>
+        <v>651802904</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30929</v>
+        <v>30936</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>594001056</v>
+        <v>594462840</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -22993,13 +22993,13 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D443" t="n">
         <v>26</v>
       </c>
       <c r="E443" t="n">
-        <v>17736533</v>
+        <v>17748849</v>
       </c>
       <c r="F443" t="inlineStr">
         <is>
@@ -23146,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>53165</v>
+        <v>53166</v>
       </c>
       <c r="D446" t="n">
         <v>8886</v>
       </c>
       <c r="E446" t="n">
-        <v>117788718</v>
+        <v>117797858</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -23656,13 +23656,13 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>15460</v>
+        <v>15462</v>
       </c>
       <c r="D456" t="n">
         <v>2377</v>
       </c>
       <c r="E456" t="n">
-        <v>41199292</v>
+        <v>41200227</v>
       </c>
       <c r="F456" t="inlineStr">
         <is>
@@ -23758,13 +23758,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>24142</v>
+        <v>24143</v>
       </c>
       <c r="D458" t="n">
         <v>4651</v>
       </c>
       <c r="E458" t="n">
-        <v>133118750</v>
+        <v>133127702</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
@@ -23809,13 +23809,13 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>7777</v>
+        <v>7779</v>
       </c>
       <c r="D459" t="n">
         <v>1537</v>
       </c>
       <c r="E459" t="n">
-        <v>64411695</v>
+        <v>64546730</v>
       </c>
       <c r="F459" t="inlineStr">
         <is>
@@ -25492,13 +25492,13 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>2448</v>
+        <v>2451</v>
       </c>
       <c r="D492" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E492" t="n">
-        <v>43096507</v>
+        <v>43182976</v>
       </c>
       <c r="F492" t="inlineStr">
         <is>
@@ -25798,13 +25798,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>8168</v>
+        <v>8170</v>
       </c>
       <c r="D498" t="n">
         <v>1913</v>
       </c>
       <c r="E498" t="n">
-        <v>16867318</v>
+        <v>16872184</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
@@ -25900,13 +25900,13 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>6387</v>
+        <v>6390</v>
       </c>
       <c r="D500" t="n">
         <v>1894</v>
       </c>
       <c r="E500" t="n">
-        <v>21941144</v>
+        <v>21955635</v>
       </c>
       <c r="F500" t="inlineStr">
         <is>
@@ -26257,13 +26257,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>3791</v>
+        <v>3798</v>
       </c>
       <c r="D507" t="n">
         <v>699</v>
       </c>
       <c r="E507" t="n">
-        <v>9080369</v>
+        <v>9098224</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>4554</v>
+        <v>4558</v>
       </c>
       <c r="D509" t="n">
         <v>967</v>
       </c>
       <c r="E509" t="n">
-        <v>20454780</v>
+        <v>20484785</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -26410,13 +26410,13 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="D510" t="n">
         <v>398</v>
       </c>
       <c r="E510" t="n">
-        <v>12347636</v>
+        <v>12352831</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="D511" t="n">
         <v>161</v>
       </c>
       <c r="E511" t="n">
-        <v>11742670</v>
+        <v>11793478</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -26665,13 +26665,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>8485</v>
+        <v>8488</v>
       </c>
       <c r="D515" t="n">
         <v>1493</v>
       </c>
       <c r="E515" t="n">
-        <v>12669783</v>
+        <v>12672414</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
@@ -28807,13 +28807,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>10934</v>
+        <v>10935</v>
       </c>
       <c r="D557" t="n">
         <v>2010</v>
       </c>
       <c r="E557" t="n">
-        <v>63312669</v>
+        <v>63512669</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -31714,13 +31714,13 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>8880</v>
+        <v>8881</v>
       </c>
       <c r="D614" t="n">
         <v>1566</v>
       </c>
       <c r="E614" t="n">
-        <v>74763194</v>
+        <v>74773194</v>
       </c>
       <c r="F614" t="inlineStr">
         <is>
@@ -42322,13 +42322,13 @@
         </is>
       </c>
       <c r="C822" t="n">
-        <v>27708</v>
+        <v>27709</v>
       </c>
       <c r="D822" t="n">
         <v>5062</v>
       </c>
       <c r="E822" t="n">
-        <v>86622461</v>
+        <v>86625156</v>
       </c>
       <c r="F822" t="inlineStr">
         <is>
@@ -42883,13 +42883,13 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>20967</v>
+        <v>20969</v>
       </c>
       <c r="D833" t="n">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="E833" t="n">
-        <v>37841347</v>
+        <v>37861275</v>
       </c>
       <c r="F833" t="inlineStr">
         <is>
